--- a/biology/Zoologie/Azuré_(papillon)/Azuré_(papillon).xlsx
+++ b/biology/Zoologie/Azuré_(papillon)/Azuré_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_(papillon)</t>
+          <t>Azuré_(papillon)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Azuré est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes de petits papillons à nuances bleutées parmi les Lycaenidae et principalement dans la sous-famille des Polyommatinae. Ils sont parfois appelés aussi « Argus » ou autre.
 Ils doivent leur nom à leurs nuances couleur d'azur, un bleu ciel, par opposition aux « Cuivrés » qui ont des nuances plus rousses. Les femelles présentent souvent des couleurs plus éteintes ou brunes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_(papillon)</t>
+          <t>Azuré_(papillon)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,88 +524,90 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés[1] en français (NB : il est fréquent que plusieurs noms désignent la même espèce).
-Azuré alpin – Agriades orbitulus[2]
-Azuré bétique – Polyommatus golgus[3]
-Azuré bleu céleste – Lysandra bellargus[3]
-Azuré canarien – Leptotes webbianus[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés en français (NB : il est fréquent que plusieurs noms désignent la même espèce).
+Azuré alpin – Agriades orbitulus
+Azuré bétique – Polyommatus golgus
+Azuré bleu céleste – Lysandra bellargus
+Azuré canarien – Leptotes webbianus
 Azuré commun – Polyommatus icarus[réf. souhaitée]
-Azuré cordouan – Pseudophilotes panoptes[3]
-Azuré d'Allard – Kretania allardii[2]
-Azuré d'Anatolie – Turanana endymion[2]
+Azuré cordouan – Pseudophilotes panoptes
+Azuré d'Allard – Kretania allardii
+Azuré d'Anatolie – Turanana endymion
 Azuré d'Éros – Polyommatus eros
-Azuré d'Escher – Polyommatus escheri[2]
-Azuré d'Icare – Polyommatus icarus[4]
-Azuré daphnis – voir Azuré de l'orobe[5]
-Azuré de Brown – Polyommatus menelaos[3]
-Azuré de Chapman – Polyommatus thersites[2]
-Azuré de Freyer – Freyeria trochylus[2]
-Azuré de Lang – Leptotes pirithous[2]
-Azuré de Loew – Plebejidea loewii[2]
-Azuré de Pierret voir Azuré de la cléonie[2]
-Azuré de Schiffermüller – Pseudophilotes vicrama[3]
+Azuré d'Escher – Polyommatus escheri
+Azuré d'Icare – Polyommatus icarus
+Azuré daphnis – voir Azuré de l'orobe
+Azuré de Brown – Polyommatus menelaos
+Azuré de Chapman – Polyommatus thersites
+Azuré de Freyer – Freyeria trochylus
+Azuré de Lang – Leptotes pirithous
+Azuré de Loew – Plebejidea loewii
+Azuré de Pierret voir Azuré de la cléonie
+Azuré de Schiffermüller – Pseudophilotes vicrama
 Azuré de l'adragant – Polyommatus escheri
-Azuré de l'airelle – voir Azuré de la canneberge[5]
-Azuré de l'ajonc – Plebejus argus[3]
-Azuré de l'androsace – Agriades pyrenaica[3]
-Azuré de l'argolou – Tarucus balkanicus[3]
-Azuré de l'esparcette – Polyommatus thersites[3],[4]
-Azuré de l'héliotrope – Freyeria trochylus[3]
-Azuré de l'orobe – Polyommatus daphnis[3],[4]
-Azuré de l'oxytropide – Polyommatus eros[3],[4]
-Azuré de la badasse – Glaucopsyche melanops[3],[4]
-Azuré de la bugrane – Polyommatus icarus[5],[4]
-Azuré de la canneberge – Agriades optilete[3]
-Azuré de la chevrette – Cupido osiris[4]
-Azuré de la cléonie – Pseudophilotes abencerragus[3]
-Azuré de la croisette – Phengaris rebeli[3]
-Azuré de la faucille – Cupido alcetas[3]
-Azuré de la jarosse – Polyommatus amandus[3],[4]
-Azuré de la luzerne – Leptotes pirithous[3],[4]
-Azuré de la minette – Cupido decoloratus[3]
-Azuré de la phaque – Agriades orbitulus[3]
-Azuré de la sanguisorbe – Phengaris teleius[3],[4]
-Azuré de la sarriette – Pseudophilotes baton[3],[4]
-Azuré de la sauge – Pseudophilotes bavius[3]
-Azuré de la surelle – Zizeeria knysna[3],[4]
-Azuré de la vesce – Neolysandra coelestina[3]
-Azuré des anthyllides – Cyaniris semiargus[4]
-Azuré des astragales – Kretania pylaon[3]
-Azuré des coronilles – Plebejus argyrognomon[3]
-Azuré des cytises – Glaucopsyche alexis[3],[4]
-Azuré des géraniums – Aricia nicias[3]
-Azuré des mouillères – Phengaris alcon[3]
-Azuré des nerpruns – Celastrina argiolus[3],[5],[4]
-Azuré des orpins – Scolitantides orion[3],[4]
-Azuré des paluds – Phengaris nausithous[3],[4]
-Azuré des soldanelles – Agriades glandon[3]
-Azuré du baguenaudier – Iolana iolas[3]
-Azuré du bec-de-grue – Maurus vogelii[2]
-Azuré du genêt – Plebejus idas[3]
-Azuré du jujubier – Tarucus theophrastus[3]
-Azuré du Maghreb – Lysandra punctifera[2]
-Azuré du mimosa – Azanus jesous[3]
-Azuré du mélilot – Polyommatus dorylas[3],[4]
-Azuré du plantain – Polyommatus escheri[3],[4]
-Azuré du serpolet – Phengaris arion[3],[5]
-Azuré du seyal – Azanus ubaldus[3]
-Azuré du thym – Pseudophilotes baton[4]
-Azuré du trèfle – Cupido argiades[3],[4]
-Azuré grenadin – Cupido lorquinii[3]
-Azuré lavandin – Kretania martini[2]
-Azuré marocain – Maurus vogelii[2]
-Azuré murcian – Cupido carswelli[3]
-Azuré osiris – Cupido osiris[3]
-Azuré parme – Tarucus rosacea[2].
-Azuré platiné – Polyommatus nivescens[3],[4]
-Azuré pont-euxin – Aricia anteros[3]
-Azuré pontique – voir Azuré ukrainien[2].
-Azuré porte-queue – Lampides boeticus[3],[4]
-Azuré sarde – Pseudophilotes barbagiae[3]
-Azuré turquoise – voir Azuré du mélilot[5]
-Azuré ukrainien – Polyommatus eroides[3]
+Azuré de l'airelle – voir Azuré de la canneberge
+Azuré de l'ajonc – Plebejus argus
+Azuré de l'androsace – Agriades pyrenaica
+Azuré de l'argolou – Tarucus balkanicus
+Azuré de l'esparcette – Polyommatus thersites,
+Azuré de l'héliotrope – Freyeria trochylus
+Azuré de l'orobe – Polyommatus daphnis,
+Azuré de l'oxytropide – Polyommatus eros,
+Azuré de la badasse – Glaucopsyche melanops,
+Azuré de la bugrane – Polyommatus icarus,
+Azuré de la canneberge – Agriades optilete
+Azuré de la chevrette – Cupido osiris
+Azuré de la cléonie – Pseudophilotes abencerragus
+Azuré de la croisette – Phengaris rebeli
+Azuré de la faucille – Cupido alcetas
+Azuré de la jarosse – Polyommatus amandus,
+Azuré de la luzerne – Leptotes pirithous,
+Azuré de la minette – Cupido decoloratus
+Azuré de la phaque – Agriades orbitulus
+Azuré de la sanguisorbe – Phengaris teleius,
+Azuré de la sarriette – Pseudophilotes baton,
+Azuré de la sauge – Pseudophilotes bavius
+Azuré de la surelle – Zizeeria knysna,
+Azuré de la vesce – Neolysandra coelestina
+Azuré des anthyllides – Cyaniris semiargus
+Azuré des astragales – Kretania pylaon
+Azuré des coronilles – Plebejus argyrognomon
+Azuré des cytises – Glaucopsyche alexis,
+Azuré des géraniums – Aricia nicias
+Azuré des mouillères – Phengaris alcon
+Azuré des nerpruns – Celastrina argiolus
+Azuré des orpins – Scolitantides orion,
+Azuré des paluds – Phengaris nausithous,
+Azuré des soldanelles – Agriades glandon
+Azuré du baguenaudier – Iolana iolas
+Azuré du bec-de-grue – Maurus vogelii
+Azuré du genêt – Plebejus idas
+Azuré du jujubier – Tarucus theophrastus
+Azuré du Maghreb – Lysandra punctifera
+Azuré du mimosa – Azanus jesous
+Azuré du mélilot – Polyommatus dorylas,
+Azuré du plantain – Polyommatus escheri,
+Azuré du serpolet – Phengaris arion,
+Azuré du seyal – Azanus ubaldus
+Azuré du thym – Pseudophilotes baton
+Azuré du trèfle – Cupido argiades,
+Azuré grenadin – Cupido lorquinii
+Azuré lavandin – Kretania martini
+Azuré marocain – Maurus vogelii
+Azuré murcian – Cupido carswelli
+Azuré osiris – Cupido osiris
+Azuré parme – Tarucus rosacea.
+Azuré platiné – Polyommatus nivescens,
+Azuré pont-euxin – Aricia anteros
+Azuré pontique – voir Azuré ukrainien.
+Azuré porte-queue – Lampides boeticus,
+Azuré sarde – Pseudophilotes barbagiae
+Azuré turquoise – voir Azuré du mélilot
+Azuré ukrainien – Polyommatus eroides
 etc.
 </t>
         </is>
